--- a/PA/PA.xlsx
+++ b/PA/PA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C122637-0610-4426-B7EA-B9B60E659CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>http://112.213.89.73:2083/</t>
   </si>
@@ -30,13 +31,34 @@
   </si>
   <si>
     <t>Luyen345</t>
+  </si>
+  <si>
+    <t>DATABASE</t>
+  </si>
+  <si>
+    <t>luyen345_wp</t>
+  </si>
+  <si>
+    <t>luyen345_admin</t>
+  </si>
+  <si>
+    <t>Thongkid1403</t>
+  </si>
+  <si>
+    <t>SITE</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Thongkid1404</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +79,12 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,7 +147,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -221,6 +255,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -256,6 +307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,12 +499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -444,21 +512,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -475,10 +545,36 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="C1" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C1" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
